--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,33 +468,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>images/doctor.png</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>Futbolista</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>Médico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>c</t>
+          <t>Panadero</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>d</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
+          <t>Cocinero</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>images/chef.png</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camarero</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Panadero</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Cocinero</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Enfermero</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>images/doctor.png</t>
+          <t>Con unos zapatos grandes y la cara muy pintada, soy el que hace reír a toda la chiquillada.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Médico</t>
+          <t>Payaso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>images/chef.png</t>
+          <t>Preparo ricos manjares, mi lugar es la cocina de restaurantes y hoteles. Veamos quién me adivina.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,516 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Riega contento el jardín, amapolas y un jazmín. Cuida la flor con esmero, ¿a quién espero?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>jardinero</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Carpintero</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Electricista</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Recojo frutos sin siembra y mi tractor viene y va, allí por donde trabajo, nadie puede caminar.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Pescador</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Maquinista</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Agricultor</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sobre lienzos o en papel, ¡qué bien emplea el color con lápices o pincel!</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carpintero</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Pintor</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trabajo en el hospital, pero soy médico no soy. Si no lo adivinas, un pinchazo te doy.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Farmacêutico</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Enfermero</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Terapeuta</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Conduzco por la ciudad, en mi coche te llevo a cualquier lugar, pero después me tendrás que pagar.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bombero</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Taxista</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Panadero</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tengo chistera y una varita. Si me lo propongo puedo hacer aparecer cositas.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cocinero</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Bibliotecario</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Mago</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mecánico</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Con madera de pino, de haya o de nogal, construyo los muebles para tu hogar.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Masón</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Dentista</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Carpintero</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Si vas al supermercado, yo te atenderé, pasando por caja te diré lo que te cobraré.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cajero</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Panadero</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mecánico</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cocinero</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Con cariño y mucho amor, en el cole te espero, con juegos y actividades con los que aprenderemos.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cajero</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Actor</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Deportivo</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Con mi pluma yo escribo, miles de libros y cuentos, para que tú los disfrutes. ¡Qué gran invento!</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Escritor</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Trabajo bajo tierra, pico y pala todo el día. Mi segunda casa es la mina. ¿Adivinas?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Minero</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>En los bares estoy y no soy el cocinero. Ayudo a servir las mesas y lo hago con esmero</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dj</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Camarero</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Bailarín</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Sumergido entre las aguas, me gusta trabajar. Con mi bombona de oxígeno me encontrarás.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Buzo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Electricist</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>En televisión trabajo, me gusta comunicar, presento programas, ¿me conoces ya?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Carpintero</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Presentador</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Si tienes una tubería atascada o un grifo roto, me tendrás que llamar, a tu casa iré corriendo para poderlo arreglar.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Plomero</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Buzo</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Camarero</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A las olimpiadas yo iré y con esfuerzo y mucho trabajo una medalla ganaré.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Actor</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Deportista</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>El pelo arreglo en mi bonito local, si vienes a visitarme te dejaré genial.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Deportista</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Actor</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Peluquero</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,7 +858,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>En los bares estoy y no soy el cocinero. Ayudo a servir las mesas y lo hago con esmero</t>
+          <t>En los bares estoy y no soy el cocinero. Ayudo a servir las mesas y lo hago con esmero.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Electricist</t>
+          <t>Electricista</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1033,6 +1033,456 @@
       </c>
       <c r="F20" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>En la granja trabajo sin cesar, cuido de los animales con gran placer. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Granjero</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Médico</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Soy el guardián del conocimiento, libros y más en mi ambiente. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Músico</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Bombero</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Granjero</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Bibliotecario</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Llevo correos de un lugar a otro, en mi moto o bicicleta, siempre soy veloz. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Profesor</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cartero</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Mecánico</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>En el mar trabajo sin descansar, pescando peces para luego vender. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Maestro</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Escritor</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Pescador</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Recorro las calles en mi camión, recolectando basura sin cesar. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fotógrafo</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Recolector</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Pescador</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>En el estudio de grabación me encuentras, produciendo música con gran pasión.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Maestro</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Veterinario</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Productor</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>En el laboratorio realizo experimentos, buscando respuestas a problemas científicos.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pescador</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Camarero</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Científico</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Bombero</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Uso mi cámara para capturar momentos, creando imágenes que recordarás.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Dentista</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Contador</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Productor</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Fotógrafo</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Con tijeras y peine trabajo cada día, creando nuevos estilos con gran maestría. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Peluquero</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Chef</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Dirijo una empresa con gran habilidad, tomando decisiones para prosperar.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Empresario</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Actor</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Diseño edificios y puentes también, creando estructuras que asombran a quien las ve.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Empresario</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Enfermero</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Maestro</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Arquitecto</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Con mi bisturí realizo cirugías, salvando vidas con mis manos cada día. ¿Quién soy?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Policía</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cirujano</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Maestro</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Carpintero</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Conduzco un gran camión de carga, transportando mercancías de una ciudad a otra.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Pintor</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Enfermero</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Camionero</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Dentista</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Trabajo en el campo, cultivando vegetales y frutas que todos disfrutamos.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Ingeniero</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Cantante</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Abogado</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Agricultor</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>En la televisión reporto noticias, informando al público con gran precisión.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Periodista</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mecánico</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Chef</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Jardinero</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
